--- a/MEPAYROLL_Updated.xlsx
+++ b/MEPAYROLL_Updated.xlsx
@@ -972,7 +972,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="26">
         <f>SUM(1000-H41)</f>
-        <v>-7000</v>
+        <v>200</v>
       </c>
       <c r="L7" s="27"/>
       <c r="M7" s="18">
@@ -1013,7 +1013,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="35"/>
       <c r="H9" s="36">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="I9" s="37"/>
       <c r="J9" s="1"/>
@@ -1058,7 +1058,7 @@
       <c r="O11" s="1"/>
       <c r="R11">
         <f>K7</f>
-        <v>-7000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:18" customHeight="1" ht="15.75">
@@ -1448,7 +1448,7 @@
       <c r="G41" s="43"/>
       <c r="H41" s="44">
         <f>SUM(H9:I40)</f>
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="I41" s="45"/>
     </row>

--- a/MEPAYROLL_Updated.xlsx
+++ b/MEPAYROLL_Updated.xlsx
@@ -972,7 +972,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="26">
         <f>SUM(1000-H41)</f>
-        <v>200</v>
+        <v>-7005</v>
       </c>
       <c r="L7" s="27"/>
       <c r="M7" s="18">
@@ -1013,7 +1013,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="35"/>
       <c r="H9" s="36">
-        <v>800</v>
+        <v>8005</v>
       </c>
       <c r="I9" s="37"/>
       <c r="J9" s="1"/>
@@ -1058,7 +1058,7 @@
       <c r="O11" s="1"/>
       <c r="R11">
         <f>K7</f>
-        <v>200</v>
+        <v>-7005</v>
       </c>
     </row>
     <row r="12" spans="1:18" customHeight="1" ht="15.75">
@@ -1448,7 +1448,7 @@
       <c r="G41" s="43"/>
       <c r="H41" s="44">
         <f>SUM(H9:I40)</f>
-        <v>800</v>
+        <v>8005</v>
       </c>
       <c r="I41" s="45"/>
     </row>
